--- a/raw_data/20200818_saline/20200818_Sensor3_Test_42.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_42.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E80748-9CBF-4082-AF9D-E35FF2E55B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>37455.689990</v>
+        <v>37455.689989999999</v>
       </c>
       <c r="B2" s="1">
         <v>10.404358</v>
       </c>
       <c r="C2" s="1">
-        <v>1155.240000</v>
+        <v>1155.24</v>
       </c>
       <c r="D2" s="1">
-        <v>-233.384000</v>
+        <v>-233.38399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>37466.117384</v>
+        <v>37466.117383999997</v>
       </c>
       <c r="G2" s="1">
-        <v>10.407255</v>
+        <v>10.407254999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1172.630000</v>
+        <v>1172.6300000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-197.642000</v>
+        <v>-197.642</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>37476.908858</v>
+        <v>37476.908858000003</v>
       </c>
       <c r="L2" s="1">
         <v>10.410252</v>
       </c>
       <c r="M2" s="1">
-        <v>1198.030000</v>
+        <v>1198.03</v>
       </c>
       <c r="N2" s="1">
-        <v>-141.671000</v>
+        <v>-141.67099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>37487.347644</v>
+        <v>37487.347644000001</v>
       </c>
       <c r="Q2" s="1">
         <v>10.413152</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S2" s="1">
-        <v>-122.962000</v>
+        <v>-122.962</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>37497.866798</v>
+        <v>37497.866798000003</v>
       </c>
       <c r="V2" s="1">
         <v>10.416074</v>
       </c>
       <c r="W2" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X2" s="1">
-        <v>-104.805000</v>
+        <v>-104.80500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>37508.299679</v>
+        <v>37508.299679000003</v>
       </c>
       <c r="AA2" s="1">
         <v>10.418972</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.647500</v>
+        <v>-89.647499999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>37518.857025</v>
+        <v>37518.857024999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.421905</v>
+        <v>10.421905000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.430000</v>
+        <v>1229.43</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.884600</v>
+        <v>-85.884600000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>37529.285379</v>
+        <v>37529.285379000001</v>
       </c>
       <c r="AK2" s="1">
         <v>10.424801</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.557200</v>
+        <v>-89.557199999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>37539.867525</v>
+        <v>37539.867525000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.427741</v>
+        <v>10.427740999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.340000</v>
+        <v>1245.3399999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.621000</v>
+        <v>-101.621</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>37550.628726</v>
+        <v>37550.628726000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>10.430730</v>
+        <v>10.430730000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.086000</v>
+        <v>-121.086</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>37561.356734</v>
+        <v>37561.356734000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.433710</v>
+        <v>10.43371</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.681000</v>
+        <v>-138.68100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>37571.930410</v>
+        <v>37571.930410000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>10.436647</v>
+        <v>10.436647000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.330000</v>
+        <v>-221.33</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>37582.587452</v>
@@ -661,769 +1077,769 @@
         <v>10.439608</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.536000</v>
+        <v>-359.536</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>37593.981558</v>
+        <v>37593.981557999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.442773</v>
+        <v>10.442773000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.630000</v>
+        <v>1486.63</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-585.562000</v>
+        <v>-585.56200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>37605.018559</v>
+        <v>37605.018558999996</v>
       </c>
       <c r="BT2" s="1">
         <v>10.445838</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.610000</v>
+        <v>1618.61</v>
       </c>
       <c r="BV2" s="1">
-        <v>-842.258000</v>
+        <v>-842.25800000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>37615.558052</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.448766</v>
+        <v>10.448766000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.970000</v>
+        <v>1770.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1121.270000</v>
+        <v>-1121.27</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>37626.601479</v>
+        <v>37626.601478999997</v>
       </c>
       <c r="CD2" s="1">
         <v>10.451834</v>
       </c>
       <c r="CE2" s="1">
-        <v>2193.420000</v>
+        <v>2193.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1801.860000</v>
+        <v>-1801.86</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>37456.068933</v>
+        <v>37456.068933000002</v>
       </c>
       <c r="B3" s="1">
-        <v>10.404464</v>
+        <v>10.404464000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1154.360000</v>
+        <v>1154.3599999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-233.411000</v>
+        <v>-233.411</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>37466.844518</v>
+        <v>37466.844517999998</v>
       </c>
       <c r="G3" s="1">
-        <v>10.407457</v>
+        <v>10.407457000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.110000</v>
+        <v>1173.1099999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-197.697000</v>
+        <v>-197.697</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>37477.248600</v>
+        <v>37477.248599999999</v>
       </c>
       <c r="L3" s="1">
         <v>10.410347</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.280000</v>
+        <v>1198.28</v>
       </c>
       <c r="N3" s="1">
-        <v>-141.812000</v>
+        <v>-141.81200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>37487.683931</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.413246</v>
+        <v>10.413245999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="S3" s="1">
-        <v>-122.969000</v>
+        <v>-122.96899999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>37498.226429</v>
+        <v>37498.226429000002</v>
       </c>
       <c r="V3" s="1">
         <v>10.416174</v>
       </c>
       <c r="W3" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-104.857000</v>
+        <v>-104.857</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>37508.655774</v>
+        <v>37508.655773999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.419071</v>
+        <v>10.419071000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.659700</v>
+        <v>-89.659700000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>37519.548944</v>
+        <v>37519.548944000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.422097</v>
+        <v>10.422097000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.900000</v>
+        <v>-85.9</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>37529.709986</v>
+        <v>37529.709986000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.424919</v>
+        <v>10.424918999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.562700</v>
+        <v>-89.562700000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>37540.309988</v>
+        <v>37540.309988000001</v>
       </c>
       <c r="AP3" s="1">
         <v>10.427864</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.340000</v>
+        <v>1245.3399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.589000</v>
+        <v>-101.589</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>37550.997782</v>
+        <v>37550.997781999999</v>
       </c>
       <c r="AU3" s="1">
         <v>10.430833</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.075000</v>
+        <v>-121.075</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>37561.720760</v>
+        <v>37561.720759999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>10.433811</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.659000</v>
+        <v>-138.65899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>37572.331711</v>
+        <v>37572.331710999999</v>
       </c>
       <c r="BE3" s="1">
         <v>10.436759</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.680000</v>
+        <v>1303.68</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.357000</v>
+        <v>-221.357</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>37583.015004</v>
+        <v>37583.015004000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.439726</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.880000</v>
+        <v>1372.88</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.541000</v>
+        <v>-359.541</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>37594.406125</v>
+        <v>37594.406125000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.442891</v>
+        <v>10.442890999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-585.567000</v>
+        <v>-585.56700000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>37605.171791</v>
+        <v>37605.171791000001</v>
       </c>
       <c r="BT3" s="1">
         <v>10.445881</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.570000</v>
+        <v>1618.57</v>
       </c>
       <c r="BV3" s="1">
-        <v>-842.395000</v>
+        <v>-842.39499999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>37616.024256</v>
+        <v>37616.024255999997</v>
       </c>
       <c r="BY3" s="1">
         <v>10.448896</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.020000</v>
+        <v>1771.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1121.410000</v>
+        <v>-1121.4100000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>37627.163939</v>
+        <v>37627.163938999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.451990</v>
+        <v>10.45199</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.640000</v>
+        <v>2191.64</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1800.190000</v>
+        <v>-1800.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>37456.754404</v>
+        <v>37456.754403999999</v>
       </c>
       <c r="B4" s="1">
-        <v>10.404654</v>
+        <v>10.404654000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1154.570000</v>
+        <v>1154.57</v>
       </c>
       <c r="D4" s="1">
-        <v>-233.340000</v>
+        <v>-233.34</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>37467.193206</v>
+        <v>37467.193206000004</v>
       </c>
       <c r="G4" s="1">
-        <v>10.407554</v>
+        <v>10.407553999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1172.960000</v>
+        <v>1172.96</v>
       </c>
       <c r="I4" s="1">
-        <v>-197.148000</v>
+        <v>-197.148</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>37477.596295</v>
+        <v>37477.596295000003</v>
       </c>
       <c r="L4" s="1">
-        <v>10.410443</v>
+        <v>10.410443000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.970000</v>
+        <v>1197.97</v>
       </c>
       <c r="N4" s="1">
-        <v>-141.568000</v>
+        <v>-141.56800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>37488.032619</v>
+        <v>37488.032618999998</v>
       </c>
       <c r="Q4" s="1">
         <v>10.413342</v>
       </c>
       <c r="R4" s="1">
-        <v>1206.510000</v>
+        <v>1206.51</v>
       </c>
       <c r="S4" s="1">
-        <v>-122.956000</v>
+        <v>-122.956</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>37498.880647</v>
+        <v>37498.880646999998</v>
       </c>
       <c r="V4" s="1">
         <v>10.416356</v>
       </c>
       <c r="W4" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="X4" s="1">
-        <v>-104.891000</v>
+        <v>-104.89100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>37509.312478</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.419253</v>
+        <v>10.419252999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.030000</v>
+        <v>1224.03</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.828000</v>
+        <v>-89.828000000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>37519.926403</v>
+        <v>37519.926402999998</v>
       </c>
       <c r="AF4" s="1">
         <v>10.422202</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.862300</v>
+        <v>-85.862300000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>37530.064594</v>
+        <v>37530.064594000003</v>
       </c>
       <c r="AK4" s="1">
         <v>10.425018</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.560300</v>
+        <v>-89.560299999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>37540.669061</v>
+        <v>37540.669061000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.427964</v>
+        <v>10.427963999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.588000</v>
+        <v>-101.58799999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>37551.360822</v>
+        <v>37551.360822000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>10.430934</v>
+        <v>10.430934000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.410000</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.075000</v>
+        <v>-121.075</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>37562.077384</v>
+        <v>37562.077383999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.433910</v>
+        <v>10.433909999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.663000</v>
+        <v>-138.66300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>37572.755755</v>
+        <v>37572.755754999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.436877</v>
+        <v>10.436877000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.339000</v>
+        <v>-221.339</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>37583.350300</v>
+        <v>37583.350299999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.439820</v>
+        <v>10.439819999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.810000</v>
+        <v>1372.81</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.528000</v>
+        <v>-359.52800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>37594.801965</v>
+        <v>37594.801964999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.443001</v>
+        <v>10.443001000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.620000</v>
+        <v>1486.62</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-585.612000</v>
+        <v>-585.61199999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>37605.581638</v>
+        <v>37605.581638000003</v>
       </c>
       <c r="BT4" s="1">
         <v>10.445995</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.490000</v>
+        <v>1618.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-842.467000</v>
+        <v>-842.46699999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>37616.441920</v>
+        <v>37616.441919999997</v>
       </c>
       <c r="BY4" s="1">
         <v>10.449012</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.020000</v>
+        <v>1771.02</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1121.330000</v>
+        <v>-1121.33</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>37627.703553</v>
+        <v>37627.703552999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.452140</v>
+        <v>10.45214</v>
       </c>
       <c r="CE4" s="1">
-        <v>2192.880000</v>
+        <v>2192.88</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1803.130000</v>
+        <v>-1803.13</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>37457.093172</v>
+        <v>37457.093172000001</v>
       </c>
       <c r="B5" s="1">
         <v>10.404748</v>
       </c>
       <c r="C5" s="1">
-        <v>1154.800000</v>
+        <v>1154.8</v>
       </c>
       <c r="D5" s="1">
-        <v>-233.134000</v>
+        <v>-233.13399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>37467.535941</v>
+        <v>37467.535941000002</v>
       </c>
       <c r="G5" s="1">
-        <v>10.407649</v>
+        <v>10.407648999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.510000</v>
+        <v>1172.51</v>
       </c>
       <c r="I5" s="1">
-        <v>-197.240000</v>
+        <v>-197.24</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>37478.246551</v>
+        <v>37478.246550999997</v>
       </c>
       <c r="L5" s="1">
         <v>10.410624</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.380000</v>
+        <v>1198.3800000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-141.402000</v>
+        <v>-141.40199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>37488.686345</v>
+        <v>37488.686345000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.413524</v>
+        <v>10.413524000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.430000</v>
+        <v>1206.43</v>
       </c>
       <c r="S5" s="1">
-        <v>-122.926000</v>
+        <v>-122.926</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>37499.256123</v>
+        <v>37499.256122999999</v>
       </c>
       <c r="V5" s="1">
-        <v>10.416460</v>
+        <v>10.416460000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="X5" s="1">
-        <v>-104.843000</v>
+        <v>-104.843</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>37509.700845</v>
+        <v>37509.700844999999</v>
       </c>
       <c r="AA5" s="1">
         <v>10.419361</v>
       </c>
       <c r="AB5" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.708500</v>
+        <v>-89.708500000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>37520.270631</v>
+        <v>37520.270630999999</v>
       </c>
       <c r="AF5" s="1">
         <v>10.422297</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.430000</v>
+        <v>1229.43</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.878500</v>
+        <v>-85.878500000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>37530.413777</v>
+        <v>37530.413777000002</v>
       </c>
       <c r="AK5" s="1">
         <v>10.425115</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.210000</v>
+        <v>1237.21</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.545500</v>
+        <v>-89.545500000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>37541.029702</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.428064</v>
+        <v>10.428063999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.614000</v>
+        <v>-101.614</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>37551.777497</v>
+        <v>37551.777497000003</v>
       </c>
       <c r="AU5" s="1">
         <v>10.431049</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.065000</v>
+        <v>-121.065</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>37562.593719</v>
+        <v>37562.593718999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>10.434054</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.830000</v>
+        <v>1263.83</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.649000</v>
+        <v>-138.649</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>37573.054378</v>
+        <v>37573.054378000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.436960</v>
+        <v>10.436959999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1303.690000</v>
+        <v>1303.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.321000</v>
+        <v>-221.321</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>37583.724812</v>
@@ -1432,467 +1848,467 @@
         <v>10.439924</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.563000</v>
+        <v>-359.56299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>37595.221580</v>
+        <v>37595.221579999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.443117</v>
+        <v>10.443117000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-585.586000</v>
+        <v>-585.58600000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>37606.013007</v>
+        <v>37606.013007000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.446115</v>
+        <v>10.446115000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.380000</v>
+        <v>1618.38</v>
       </c>
       <c r="BV5" s="1">
-        <v>-842.417000</v>
+        <v>-842.41700000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>37616.897410</v>
+        <v>37616.897409999998</v>
       </c>
       <c r="BY5" s="1">
         <v>10.449138</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.940000</v>
+        <v>1770.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1121.240000</v>
+        <v>-1121.24</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>37628.241739</v>
+        <v>37628.241738999997</v>
       </c>
       <c r="CD5" s="1">
         <v>10.452289</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.940000</v>
+        <v>2192.94</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1800.490000</v>
+        <v>-1800.49</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>37457.435906</v>
+        <v>37457.435905999999</v>
       </c>
       <c r="B6" s="1">
         <v>10.404843</v>
       </c>
       <c r="C6" s="1">
-        <v>1154.990000</v>
+        <v>1154.99</v>
       </c>
       <c r="D6" s="1">
-        <v>-233.108000</v>
+        <v>-233.108</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>37468.200111</v>
+        <v>37468.200110999998</v>
       </c>
       <c r="G6" s="1">
         <v>10.407833</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.650000</v>
+        <v>1173.6500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-197.462000</v>
+        <v>-197.46199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>37478.630950</v>
+        <v>37478.630949999999</v>
       </c>
       <c r="L6" s="1">
         <v>10.410731</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.040000</v>
+        <v>1198.04</v>
       </c>
       <c r="N6" s="1">
-        <v>-141.786000</v>
+        <v>-141.786</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>37489.077192</v>
+        <v>37489.077191999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.413633</v>
+        <v>10.413633000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="S6" s="1">
-        <v>-122.912000</v>
+        <v>-122.91200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>37499.604315</v>
+        <v>37499.604314999997</v>
       </c>
       <c r="V6" s="1">
-        <v>10.416557</v>
+        <v>10.416556999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X6" s="1">
-        <v>-104.813000</v>
+        <v>-104.813</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>37510.048542</v>
+        <v>37510.048541999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.419458</v>
+        <v>10.419458000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.932300</v>
+        <v>-89.932299999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>37520.614847</v>
+        <v>37520.614846999997</v>
       </c>
       <c r="AF6" s="1">
         <v>10.422393</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.812800</v>
+        <v>-85.812799999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>37530.838208</v>
+        <v>37530.838208000001</v>
       </c>
       <c r="AK6" s="1">
         <v>10.425233</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.160000</v>
+        <v>1237.1600000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.517400</v>
+        <v>-89.517399999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>37541.457240</v>
+        <v>37541.457240000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.428183</v>
+        <v>10.428183000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.340000</v>
+        <v>1245.3399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.647000</v>
+        <v>-101.64700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>37552.092455</v>
+        <v>37552.092454999998</v>
       </c>
       <c r="AU6" s="1">
         <v>10.431137</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.390000</v>
+        <v>1255.3900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.060000</v>
+        <v>-121.06</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>37562.795096</v>
+        <v>37562.795096000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.434110</v>
+        <v>10.43411</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.860000</v>
+        <v>1263.8599999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.672000</v>
+        <v>-138.672</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>37573.414473</v>
+        <v>37573.414472999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>10.437060</v>
+        <v>10.437060000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.340000</v>
+        <v>-221.34</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>37584.109675</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.440030</v>
+        <v>10.44003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.840000</v>
+        <v>1372.84</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.520000</v>
+        <v>-359.52</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>37595.617355</v>
+        <v>37595.617355000002</v>
       </c>
       <c r="BO6" s="1">
         <v>10.443227</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.680000</v>
+        <v>1486.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-585.611000</v>
+        <v>-585.61099999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>37606.439070</v>
+        <v>37606.43907</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.446233</v>
+        <v>10.446232999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.310000</v>
+        <v>1618.31</v>
       </c>
       <c r="BV6" s="1">
-        <v>-842.450000</v>
+        <v>-842.45</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>37617.347208</v>
+        <v>37617.347207999999</v>
       </c>
       <c r="BY6" s="1">
         <v>10.449263</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.030000</v>
+        <v>1771.03</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1121.270000</v>
+        <v>-1121.27</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>37628.783839</v>
+        <v>37628.783839000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.452440</v>
+        <v>10.452439999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2191.040000</v>
+        <v>2191.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1801.730000</v>
+        <v>-1801.73</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>37458.132786</v>
+        <v>37458.132786000002</v>
       </c>
       <c r="B7" s="1">
         <v>10.405037</v>
       </c>
       <c r="C7" s="1">
-        <v>1155.200000</v>
+        <v>1155.2</v>
       </c>
       <c r="D7" s="1">
-        <v>-233.480000</v>
+        <v>-233.48</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>37468.569107</v>
+        <v>37468.569107000003</v>
       </c>
       <c r="G7" s="1">
-        <v>10.407936</v>
+        <v>10.407935999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.900000</v>
+        <v>1172.9000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-197.586000</v>
+        <v>-197.58600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>37478.977190</v>
+        <v>37478.977189999998</v>
       </c>
       <c r="L7" s="1">
-        <v>10.410827</v>
+        <v>10.410826999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.060000</v>
+        <v>1198.06</v>
       </c>
       <c r="N7" s="1">
-        <v>-141.770000</v>
+        <v>-141.77000000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>37489.425384</v>
+        <v>37489.425384000002</v>
       </c>
       <c r="Q7" s="1">
         <v>10.413729</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S7" s="1">
-        <v>-122.912000</v>
+        <v>-122.91200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>37499.950987</v>
+        <v>37499.950986999997</v>
       </c>
       <c r="V7" s="1">
         <v>10.416653</v>
       </c>
       <c r="W7" s="1">
-        <v>1215.010000</v>
+        <v>1215.01</v>
       </c>
       <c r="X7" s="1">
-        <v>-104.887000</v>
+        <v>-104.887</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>37510.438407</v>
+        <v>37510.438407000001</v>
       </c>
       <c r="AA7" s="1">
         <v>10.419566</v>
       </c>
       <c r="AB7" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.746400</v>
+        <v>-89.746399999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>37521.028974</v>
+        <v>37521.028974000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.422508</v>
+        <v>10.422508000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.859200</v>
+        <v>-85.859200000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>37531.116608</v>
+        <v>37531.116607999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.425310</v>
+        <v>10.42531</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.180000</v>
+        <v>1237.18</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.537000</v>
+        <v>-89.537000000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>37541.747364</v>
+        <v>37541.747364000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.428263</v>
+        <v>10.428262999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.612000</v>
+        <v>-101.61199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>37552.455037</v>
@@ -1901,392 +2317,392 @@
         <v>10.431238</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.430000</v>
+        <v>1255.43</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.043000</v>
+        <v>-121.04300000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>37563.153704</v>
+        <v>37563.153703999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.434209</v>
+        <v>10.434208999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.691000</v>
+        <v>-138.691</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>37573.777514</v>
+        <v>37573.777514000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.437160</v>
+        <v>10.43716</v>
       </c>
       <c r="BF7" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.350000</v>
+        <v>-221.35</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>37584.871568</v>
+        <v>37584.871568000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>10.440242</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.569000</v>
+        <v>-359.56900000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>37596.049372</v>
+        <v>37596.049372000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.443347</v>
+        <v>10.443346999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-585.585000</v>
+        <v>-585.58500000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>37606.852268</v>
+        <v>37606.852268000002</v>
       </c>
       <c r="BT7" s="1">
         <v>10.446348</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.200000</v>
+        <v>1618.2</v>
       </c>
       <c r="BV7" s="1">
-        <v>-842.398000</v>
+        <v>-842.39800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>37617.802415</v>
+        <v>37617.802414999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.449390</v>
+        <v>10.449389999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.000000</v>
+        <v>1771</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1121.550000</v>
+        <v>-1121.55</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>37629.323025</v>
+        <v>37629.323024999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.452590</v>
+        <v>10.452590000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2193.360000</v>
+        <v>2193.36</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1802.450000</v>
+        <v>-1802.45</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>37458.502800</v>
+        <v>37458.502800000002</v>
       </c>
       <c r="B8" s="1">
-        <v>10.405140</v>
+        <v>10.405139999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1155.270000</v>
+        <v>1155.27</v>
       </c>
       <c r="D8" s="1">
-        <v>-233.219000</v>
+        <v>-233.21899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>37468.913363</v>
       </c>
       <c r="G8" s="1">
-        <v>10.408031</v>
+        <v>10.408030999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.090000</v>
+        <v>1173.0899999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-197.842000</v>
+        <v>-197.84200000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>37479.318933</v>
+        <v>37479.318933000002</v>
       </c>
       <c r="L8" s="1">
-        <v>10.410922</v>
+        <v>10.410921999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-141.517000</v>
+        <v>-141.517</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>37489.772583</v>
+        <v>37489.772582999998</v>
       </c>
       <c r="Q8" s="1">
         <v>10.413826</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S8" s="1">
-        <v>-122.947000</v>
+        <v>-122.947</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>37500.366168</v>
       </c>
       <c r="V8" s="1">
-        <v>10.416768</v>
+        <v>10.416767999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1214.880000</v>
+        <v>1214.8800000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-104.884000</v>
+        <v>-104.884</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>37510.925979</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.419702</v>
+        <v>10.419701999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.000000</v>
+        <v>1224</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.634700</v>
+        <v>-89.634699999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>37521.327566</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.422591</v>
+        <v>10.422591000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.873600</v>
+        <v>-85.873599999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>37531.461824</v>
+        <v>37531.461823999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.425406</v>
+        <v>10.425406000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.200000</v>
+        <v>1237.2</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.582900</v>
+        <v>-89.582899999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>37542.107986</v>
+        <v>37542.107986000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>10.428363</v>
+        <v>10.428362999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.599000</v>
+        <v>-101.599</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>37552.820052</v>
+        <v>37552.820052000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.431339</v>
+        <v>10.431338999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.400000</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.086000</v>
+        <v>-121.086</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>37563.872407</v>
+        <v>37563.872407000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.434409</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.830000</v>
+        <v>1263.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.678000</v>
+        <v>-138.678</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>37574.499223</v>
+        <v>37574.499222999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.437361</v>
+        <v>10.437360999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1303.690000</v>
+        <v>1303.69</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.351000</v>
+        <v>-221.351</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>37585.249482</v>
+        <v>37585.249481999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.440347</v>
+        <v>10.440346999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.542000</v>
+        <v>-359.54199999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>37596.437739</v>
+        <v>37596.437739000001</v>
       </c>
       <c r="BO8" s="1">
         <v>10.443455</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.600000</v>
+        <v>1486.6</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-585.596000</v>
+        <v>-585.596</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>37607.287228</v>
+        <v>37607.287228000001</v>
       </c>
       <c r="BT8" s="1">
         <v>10.446469</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.070000</v>
+        <v>1618.07</v>
       </c>
       <c r="BV8" s="1">
-        <v>-842.376000</v>
+        <v>-842.37599999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>37618.559806</v>
+        <v>37618.559805999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.449600</v>
+        <v>10.4496</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.010000</v>
+        <v>1771.01</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1121.350000</v>
+        <v>-1121.3499999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>37630.170195</v>
+        <v>37630.170194999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.452825</v>
+        <v>10.452825000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.340000</v>
+        <v>2191.34</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1802.250000</v>
+        <v>-1802.25</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>37458.843597</v>
+        <v>37458.843596999999</v>
       </c>
       <c r="B9" s="1">
         <v>10.405234</v>
       </c>
       <c r="C9" s="1">
-        <v>1154.920000</v>
+        <v>1154.92</v>
       </c>
       <c r="D9" s="1">
-        <v>-233.455000</v>
+        <v>-233.45500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>37469.256598</v>
@@ -2295,73 +2711,73 @@
         <v>10.408127</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.050000</v>
+        <v>1173.05</v>
       </c>
       <c r="I9" s="1">
-        <v>-198.113000</v>
+        <v>-198.113</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>37479.740005</v>
       </c>
       <c r="L9" s="1">
-        <v>10.411039</v>
+        <v>10.411039000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.280000</v>
+        <v>1198.28</v>
       </c>
       <c r="N9" s="1">
-        <v>-141.696000</v>
+        <v>-141.696</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>37490.180790</v>
+        <v>37490.180789999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.413939</v>
+        <v>10.413938999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S9" s="1">
-        <v>-122.990000</v>
+        <v>-122.99</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>37500.648361</v>
       </c>
       <c r="V9" s="1">
-        <v>10.416847</v>
+        <v>10.416847000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1214.970000</v>
+        <v>1214.97</v>
       </c>
       <c r="X9" s="1">
-        <v>-104.892000</v>
+        <v>-104.892</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>37511.109980</v>
+        <v>37511.109980000001</v>
       </c>
       <c r="AA9" s="1">
         <v>10.419753</v>
       </c>
       <c r="AB9" s="1">
-        <v>1223.970000</v>
+        <v>1223.97</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.592100</v>
+        <v>-89.592100000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>37521.671789</v>
@@ -2370,315 +2786,315 @@
         <v>10.422687</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.490000</v>
+        <v>1229.49</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.868400</v>
+        <v>-85.868399999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>37531.815473</v>
+        <v>37531.815473000002</v>
       </c>
       <c r="AK9" s="1">
         <v>10.425504</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.200000</v>
+        <v>1237.2</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.549600</v>
+        <v>-89.549599999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>37542.470530</v>
+        <v>37542.470529999999</v>
       </c>
       <c r="AP9" s="1">
         <v>10.428464</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.609000</v>
+        <v>-101.60899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>37553.550660</v>
+        <v>37553.550660000001</v>
       </c>
       <c r="AU9" s="1">
         <v>10.431542</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.068000</v>
+        <v>-121.068</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>37564.258294</v>
+        <v>37564.258293999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>10.434516</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.860000</v>
+        <v>1263.8599999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.684000</v>
+        <v>-138.684</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>37574.858326</v>
+        <v>37574.858326000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.437461</v>
+        <v>10.437461000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.361000</v>
+        <v>-221.36099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>37585.624458</v>
+        <v>37585.624457999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.440451</v>
+        <v>10.440450999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.523000</v>
+        <v>-359.52300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>37596.856858</v>
+        <v>37596.856857999999</v>
       </c>
       <c r="BO9" s="1">
         <v>10.443571</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-585.599000</v>
+        <v>-585.59900000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>37608.015387</v>
+        <v>37608.015386999999</v>
       </c>
       <c r="BT9" s="1">
         <v>10.446671</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.080000</v>
+        <v>1618.08</v>
       </c>
       <c r="BV9" s="1">
-        <v>-842.234000</v>
+        <v>-842.23400000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>37618.701693</v>
+        <v>37618.701693000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.449639</v>
+        <v>10.449638999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.940000</v>
+        <v>1770.94</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1121.170000</v>
+        <v>-1121.17</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>37630.404297</v>
+        <v>37630.404297000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>10.452890</v>
+        <v>10.45289</v>
       </c>
       <c r="CE9" s="1">
-        <v>2191.450000</v>
+        <v>2191.4499999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1802.190000</v>
+        <v>-1802.19</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>37459.268655</v>
       </c>
       <c r="B10" s="1">
-        <v>10.405352</v>
+        <v>10.405352000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1155.200000</v>
+        <v>1155.2</v>
       </c>
       <c r="D10" s="1">
-        <v>-233.416000</v>
+        <v>-233.416</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>37469.688612</v>
+        <v>37469.688611999998</v>
       </c>
       <c r="G10" s="1">
-        <v>10.408247</v>
+        <v>10.408246999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.890000</v>
+        <v>1172.8900000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-197.621000</v>
+        <v>-197.62100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>37480.014293</v>
       </c>
       <c r="L10" s="1">
-        <v>10.411115</v>
+        <v>10.411115000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1198.070000</v>
+        <v>1198.07</v>
       </c>
       <c r="N10" s="1">
-        <v>-141.520000</v>
+        <v>-141.52000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>37490.478392</v>
+        <v>37490.478391999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.414022</v>
+        <v>10.414021999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="S10" s="1">
-        <v>-122.941000</v>
+        <v>-122.941</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>37500.989641</v>
       </c>
       <c r="V10" s="1">
-        <v>10.416942</v>
+        <v>10.416942000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X10" s="1">
-        <v>-104.889000</v>
+        <v>-104.889</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>37511.457676</v>
+        <v>37511.457675999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.419849</v>
+        <v>10.419848999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.000000</v>
+        <v>1224</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.815900</v>
+        <v>-89.815899999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>37522.014563</v>
+        <v>37522.014562999997</v>
       </c>
       <c r="AF10" s="1">
         <v>10.422782</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.859000</v>
+        <v>-85.858999999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>37532.507423</v>
+        <v>37532.507423000003</v>
       </c>
       <c r="AK10" s="1">
         <v>10.425697</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.566000</v>
+        <v>-89.566000000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>37543.191218</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.428664</v>
+        <v>10.428663999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.644000</v>
+        <v>-101.64400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>37553.913731</v>
+        <v>37553.913731000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.431643</v>
+        <v>10.431642999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.410000</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.088000</v>
+        <v>-121.08799999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>37564.616404</v>
@@ -2687,422 +3103,422 @@
         <v>10.434616</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.670000</v>
+        <v>-138.66999999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>37575.219911</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.437561</v>
+        <v>10.437561000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.343000</v>
+        <v>-221.34299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>37586.334232</v>
+        <v>37586.334232000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>10.440648</v>
+        <v>10.440647999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.840000</v>
+        <v>1372.84</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.568000</v>
+        <v>-359.56799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>37597.655912</v>
+        <v>37597.655912000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.443793</v>
+        <v>10.443792999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.620000</v>
+        <v>1486.62</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-585.617000</v>
+        <v>-585.61699999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>37608.157211</v>
+        <v>37608.157210999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>10.446710</v>
+        <v>10.446709999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.950000</v>
+        <v>1617.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-842.118000</v>
+        <v>-842.11800000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>37619.120781</v>
+        <v>37619.120780999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.449756</v>
+        <v>10.449756000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.870000</v>
+        <v>1770.87</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1121.330000</v>
+        <v>-1121.33</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>37630.922588</v>
+        <v>37630.922588000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.453034</v>
+        <v>10.453034000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.400000</v>
+        <v>2193.4</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1802.400000</v>
+        <v>-1802.4</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>37459.538972</v>
+        <v>37459.538972000002</v>
       </c>
       <c r="B11" s="1">
         <v>10.405427</v>
       </c>
       <c r="C11" s="1">
-        <v>1154.750000</v>
+        <v>1154.75</v>
       </c>
       <c r="D11" s="1">
-        <v>-233.277000</v>
+        <v>-233.27699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>37469.969349</v>
+        <v>37469.969348999999</v>
       </c>
       <c r="G11" s="1">
         <v>10.408325</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.180000</v>
+        <v>1172.18</v>
       </c>
       <c r="I11" s="1">
-        <v>-197.881000</v>
+        <v>-197.881</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>37480.359509</v>
+        <v>37480.359509000002</v>
       </c>
       <c r="L11" s="1">
         <v>10.411211</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="N11" s="1">
-        <v>-141.712000</v>
+        <v>-141.71199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>37490.830054</v>
+        <v>37490.830053999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.414119</v>
+        <v>10.414118999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.420000</v>
+        <v>1206.42</v>
       </c>
       <c r="S11" s="1">
-        <v>-122.907000</v>
+        <v>-122.907</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>37501.330892</v>
+        <v>37501.330891999998</v>
       </c>
       <c r="V11" s="1">
         <v>10.417036</v>
       </c>
       <c r="W11" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-104.896000</v>
+        <v>-104.896</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>37512.154583</v>
+        <v>37512.154583000003</v>
       </c>
       <c r="AA11" s="1">
         <v>10.420043</v>
       </c>
       <c r="AB11" s="1">
-        <v>1223.990000</v>
+        <v>1223.99</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.718100</v>
+        <v>-89.718100000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>37522.700987</v>
+        <v>37522.700986999997</v>
       </c>
       <c r="AF11" s="1">
         <v>10.422972</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.430000</v>
+        <v>1229.43</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.861900</v>
+        <v>-85.861900000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>37532.860574</v>
+        <v>37532.860573999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.425795</v>
+        <v>10.425795000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.180000</v>
+        <v>1237.18</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.544000</v>
+        <v>-89.543999999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>37543.579088</v>
+        <v>37543.579087999999</v>
       </c>
       <c r="AP11" s="1">
         <v>10.428772</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.626000</v>
+        <v>-101.626</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>37554.279283</v>
+        <v>37554.279283000003</v>
       </c>
       <c r="AU11" s="1">
         <v>10.431744</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.400000</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.073000</v>
+        <v>-121.07299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>37565.279557</v>
+        <v>37565.279557000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.434800</v>
+        <v>10.434799999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.662000</v>
+        <v>-138.66200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>37575.883029</v>
+        <v>37575.883028999997</v>
       </c>
       <c r="BE11" s="1">
         <v>10.437745</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.680000</v>
+        <v>1303.68</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.351000</v>
+        <v>-221.351</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>37586.773687</v>
+        <v>37586.773687000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.440770</v>
+        <v>10.440770000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.840000</v>
+        <v>1372.84</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.509000</v>
+        <v>-359.50900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>37598.091896</v>
+        <v>37598.091895999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.443914</v>
+        <v>10.443913999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.660000</v>
+        <v>1486.66</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-585.575000</v>
+        <v>-585.57500000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>37608.569386</v>
+        <v>37608.569386000003</v>
       </c>
       <c r="BT11" s="1">
         <v>10.446825</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.910000</v>
+        <v>1617.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-842.072000</v>
+        <v>-842.072</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>37619.547057</v>
+        <v>37619.547057000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.449874</v>
+        <v>10.449873999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.030000</v>
+        <v>1771.03</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1121.370000</v>
+        <v>-1121.3699999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>37631.442892</v>
+        <v>37631.442891999999</v>
       </c>
       <c r="CD11" s="1">
         <v>10.453179</v>
       </c>
       <c r="CE11" s="1">
-        <v>2193.060000</v>
+        <v>2193.06</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1800.210000</v>
+        <v>-1800.21</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>37459.880718</v>
       </c>
       <c r="B12" s="1">
-        <v>10.405522</v>
+        <v>10.405521999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1154.880000</v>
+        <v>1154.8800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-233.504000</v>
+        <v>-233.50399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>37470.314530</v>
+        <v>37470.314530000003</v>
       </c>
       <c r="G12" s="1">
-        <v>10.408421</v>
+        <v>10.408421000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1172.440000</v>
+        <v>1172.44</v>
       </c>
       <c r="I12" s="1">
-        <v>-197.833000</v>
+        <v>-197.833</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>37480.704229</v>
+        <v>37480.704229000003</v>
       </c>
       <c r="L12" s="1">
-        <v>10.411307</v>
+        <v>10.411307000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.640000</v>
+        <v>1198.6400000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-141.674000</v>
+        <v>-141.67400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>37491.177752</v>
+        <v>37491.177752000003</v>
       </c>
       <c r="Q12" s="1">
         <v>10.414216</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S12" s="1">
-        <v>-122.903000</v>
+        <v>-122.90300000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>37502.017816</v>
@@ -3111,43 +3527,43 @@
         <v>10.417227</v>
       </c>
       <c r="W12" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X12" s="1">
-        <v>-104.868000</v>
+        <v>-104.86799999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>37512.504234</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.420140</v>
+        <v>10.42014</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.707500</v>
+        <v>-89.707499999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>37523.046701</v>
+        <v>37523.046700999999</v>
       </c>
       <c r="AF12" s="1">
         <v>10.423069</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.410000</v>
+        <v>1229.4100000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.862600</v>
+        <v>-85.8626</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>37533.208239</v>
@@ -3156,13 +3572,13 @@
         <v>10.425891</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.539500</v>
+        <v>-89.539500000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>37543.956543</v>
@@ -3171,240 +3587,240 @@
         <v>10.428877</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.627000</v>
+        <v>-101.627</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>37554.954337</v>
+        <v>37554.954337000003</v>
       </c>
       <c r="AU12" s="1">
         <v>10.431932</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.410000</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.080000</v>
+        <v>-121.08</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>37565.726978</v>
+        <v>37565.726977999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.434924</v>
+        <v>10.434924000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.669000</v>
+        <v>-138.66900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>37576.331444</v>
+        <v>37576.331444000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.437870</v>
+        <v>10.43787</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.680000</v>
+        <v>1303.68</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.359000</v>
+        <v>-221.35900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>37587.180407</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.440883</v>
+        <v>10.440882999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.840000</v>
+        <v>1372.84</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.563000</v>
+        <v>-359.56299999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>37598.488732</v>
+        <v>37598.488731999998</v>
       </c>
       <c r="BO12" s="1">
         <v>10.444025</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.670000</v>
+        <v>1486.67</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-585.575000</v>
+        <v>-585.57500000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>37608.998960</v>
+        <v>37608.998959999997</v>
       </c>
       <c r="BT12" s="1">
         <v>10.446944</v>
       </c>
       <c r="BU12" s="1">
-        <v>1617.870000</v>
+        <v>1617.87</v>
       </c>
       <c r="BV12" s="1">
-        <v>-842.056000</v>
+        <v>-842.05600000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>37619.962493</v>
+        <v>37619.962492999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>10.449990</v>
+        <v>10.44999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.050000</v>
+        <v>1771.05</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1121.260000</v>
+        <v>-1121.26</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>37631.961707</v>
+        <v>37631.961707000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.453323</v>
+        <v>10.453322999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1801.080000</v>
+        <v>-1801.08</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>37460.221438</v>
       </c>
       <c r="B13" s="1">
-        <v>10.405617</v>
+        <v>10.405616999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1154.760000</v>
+        <v>1154.76</v>
       </c>
       <c r="D13" s="1">
-        <v>-233.242000</v>
+        <v>-233.24199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>37470.659249</v>
+        <v>37470.659248999997</v>
       </c>
       <c r="G13" s="1">
-        <v>10.408516</v>
+        <v>10.408516000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.020000</v>
+        <v>1173.02</v>
       </c>
       <c r="I13" s="1">
-        <v>-197.817000</v>
+        <v>-197.81700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>37481.395650</v>
+        <v>37481.395649999999</v>
       </c>
       <c r="L13" s="1">
-        <v>10.411499</v>
+        <v>10.411498999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="N13" s="1">
-        <v>-141.630000</v>
+        <v>-141.63</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>37491.873638</v>
+        <v>37491.873637999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.414409</v>
+        <v>10.414408999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="S13" s="1">
-        <v>-122.926000</v>
+        <v>-122.926</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>37502.362536</v>
+        <v>37502.362536000001</v>
       </c>
       <c r="V13" s="1">
         <v>10.417323</v>
       </c>
       <c r="W13" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X13" s="1">
-        <v>-104.801000</v>
+        <v>-104.801</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>37512.851930</v>
+        <v>37512.851929999997</v>
       </c>
       <c r="AA13" s="1">
         <v>10.420237</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.000000</v>
+        <v>1224</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.811400</v>
+        <v>-89.811400000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>37523.389931</v>
+        <v>37523.389930999998</v>
       </c>
       <c r="AF13" s="1">
         <v>10.423164</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.889600</v>
+        <v>-85.889600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>37533.858989</v>
@@ -3413,88 +3829,88 @@
         <v>10.426072</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.170000</v>
+        <v>1237.17</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.556200</v>
+        <v>-89.556200000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>37544.633087</v>
+        <v>37544.633087000002</v>
       </c>
       <c r="AP13" s="1">
         <v>10.429065</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.627000</v>
+        <v>-101.627</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>37555.373476</v>
+        <v>37555.373476000001</v>
       </c>
       <c r="AU13" s="1">
         <v>10.432048</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.081000</v>
+        <v>-121.081</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>37566.085093</v>
+        <v>37566.085093000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>10.435024</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.860000</v>
+        <v>1263.8599999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.672000</v>
+        <v>-138.672</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>37576.691014</v>
+        <v>37576.691014000004</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.437970</v>
+        <v>10.43797</v>
       </c>
       <c r="BF13" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.357000</v>
+        <v>-221.357</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>37587.554918</v>
+        <v>37587.554918000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.440987</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.840000</v>
+        <v>1372.84</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.588000</v>
+        <v>-359.58800000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>37598.909303</v>
@@ -3503,542 +3919,542 @@
         <v>10.444141</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.690000</v>
+        <v>1486.69</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-585.551000</v>
+        <v>-585.55100000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>37609.423497</v>
+        <v>37609.423497000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.447062</v>
+        <v>10.447062000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.920000</v>
+        <v>1617.92</v>
       </c>
       <c r="BV13" s="1">
-        <v>-841.868000</v>
+        <v>-841.86800000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>37620.419803</v>
+        <v>37620.419802999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.450117</v>
+        <v>10.450117000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.940000</v>
+        <v>1770.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1121.330000</v>
+        <v>-1121.33</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>37632.476059</v>
+        <v>37632.476059000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>10.453466</v>
+        <v>10.453466000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.150000</v>
+        <v>2191.15</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1800.520000</v>
+        <v>-1800.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>37460.903964</v>
+        <v>37460.903963999997</v>
       </c>
       <c r="B14" s="1">
-        <v>10.405807</v>
+        <v>10.405806999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1155.210000</v>
+        <v>1155.21</v>
       </c>
       <c r="D14" s="1">
-        <v>-233.280000</v>
+        <v>-233.28</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>37471.351665</v>
+        <v>37471.351665000002</v>
       </c>
       <c r="G14" s="1">
         <v>10.408709</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.950000</v>
+        <v>1172.95</v>
       </c>
       <c r="I14" s="1">
-        <v>-197.764000</v>
+        <v>-197.76400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>37481.742355</v>
+        <v>37481.742355000002</v>
       </c>
       <c r="L14" s="1">
         <v>10.411595</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-141.404000</v>
+        <v>-141.404</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>37492.222820</v>
+        <v>37492.222820000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.414506</v>
+        <v>10.414505999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S14" s="1">
-        <v>-122.982000</v>
+        <v>-122.982</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>37502.705307</v>
+        <v>37502.705306999997</v>
       </c>
       <c r="V14" s="1">
         <v>10.417418</v>
       </c>
       <c r="W14" s="1">
-        <v>1214.830000</v>
+        <v>1214.83</v>
       </c>
       <c r="X14" s="1">
-        <v>-104.894000</v>
+        <v>-104.89400000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>37513.508633</v>
+        <v>37513.508632999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.420419</v>
+        <v>10.420419000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.030000</v>
+        <v>1224.03</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.883200</v>
+        <v>-89.883200000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>37524.043659</v>
+        <v>37524.043659000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.423345</v>
+        <v>10.423344999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.839500</v>
+        <v>-85.839500000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>37534.253812</v>
+        <v>37534.253812000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>10.426182</v>
+        <v>10.426182000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.210000</v>
+        <v>1237.21</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.584900</v>
+        <v>-89.584900000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>37545.039310</v>
+        <v>37545.03931</v>
       </c>
       <c r="AP14" s="1">
         <v>10.429178</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.638000</v>
+        <v>-101.63800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>37555.737024</v>
+        <v>37555.737024000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.432149</v>
+        <v>10.432149000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.440000</v>
+        <v>1255.44</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.065000</v>
+        <v>-121.065</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>37566.446146</v>
+        <v>37566.446146000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.435124</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.820000</v>
+        <v>1263.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.676000</v>
+        <v>-138.67599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>37577.054580</v>
+        <v>37577.054580000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.438071</v>
+        <v>10.438071000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.325000</v>
+        <v>-221.32499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>37587.977014</v>
+        <v>37587.977013999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.441105</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.900000</v>
+        <v>1372.9</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.569000</v>
+        <v>-359.56900000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>37599.309079</v>
+        <v>37599.309078999999</v>
       </c>
       <c r="BO14" s="1">
         <v>10.444253</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-585.592000</v>
+        <v>-585.59199999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>37609.827240</v>
+        <v>37609.827239999999</v>
       </c>
       <c r="BT14" s="1">
         <v>10.447174</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.870000</v>
+        <v>1617.87</v>
       </c>
       <c r="BV14" s="1">
-        <v>-841.864000</v>
+        <v>-841.86400000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>37620.866699</v>
+        <v>37620.866698999998</v>
       </c>
       <c r="BY14" s="1">
         <v>10.450241</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.070000</v>
+        <v>1771.07</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1121.220000</v>
+        <v>-1121.22</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>37633.024137</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.453618</v>
+        <v>10.453618000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.820000</v>
+        <v>2192.8200000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1800.370000</v>
+        <v>-1800.37</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>37461.249178</v>
+        <v>37461.249177999998</v>
       </c>
       <c r="B15" s="1">
         <v>10.405903</v>
       </c>
       <c r="C15" s="1">
-        <v>1155.320000</v>
+        <v>1155.32</v>
       </c>
       <c r="D15" s="1">
-        <v>-233.313000</v>
+        <v>-233.31299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>37471.699359</v>
+        <v>37471.699358999998</v>
       </c>
       <c r="G15" s="1">
-        <v>10.408805</v>
+        <v>10.408804999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.130000</v>
+        <v>1173.1300000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-197.693000</v>
+        <v>-197.69300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>37482.091538</v>
+        <v>37482.091538000001</v>
       </c>
       <c r="L15" s="1">
         <v>10.411692</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.160000</v>
+        <v>1198.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-141.670000</v>
+        <v>-141.66999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>37492.572037</v>
+        <v>37492.572036999998</v>
       </c>
       <c r="Q15" s="1">
         <v>10.414603</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="S15" s="1">
-        <v>-122.939000</v>
+        <v>-122.93899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>37503.349573</v>
       </c>
       <c r="V15" s="1">
-        <v>10.417597</v>
+        <v>10.417597000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.939000</v>
+        <v>-104.93899999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>37513.898488</v>
+        <v>37513.898487999999</v>
       </c>
       <c r="AA15" s="1">
         <v>10.420527</v>
       </c>
       <c r="AB15" s="1">
-        <v>1223.900000</v>
+        <v>1223.9000000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.829900</v>
+        <v>-89.829899999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>37524.420121</v>
+        <v>37524.420121000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.423450</v>
+        <v>10.423450000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.867500</v>
+        <v>-85.867500000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>37534.601501</v>
+        <v>37534.601500999997</v>
       </c>
       <c r="AK15" s="1">
         <v>10.426278</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.200000</v>
+        <v>1237.2</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.570200</v>
+        <v>-89.5702</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>37545.418785</v>
+        <v>37545.418785000002</v>
       </c>
       <c r="AP15" s="1">
         <v>10.429283</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.624000</v>
+        <v>-101.624</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>37556.101584</v>
+        <v>37556.101584000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.432250</v>
+        <v>10.43225</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.400000</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.067000</v>
+        <v>-121.06699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>37566.872738</v>
+        <v>37566.872737999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.435242</v>
+        <v>10.435242000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.691000</v>
+        <v>-138.691</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>37577.471220</v>
+        <v>37577.471219999999</v>
       </c>
       <c r="BE15" s="1">
         <v>10.438186</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.680000</v>
+        <v>1303.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.343000</v>
+        <v>-221.34299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>37588.328149</v>
+        <v>37588.328149000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.441202</v>
+        <v>10.441202000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.880000</v>
+        <v>1372.88</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.570000</v>
+        <v>-359.57</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>37599.726214</v>
+        <v>37599.726214000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>10.444368</v>
+        <v>10.444368000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.690000</v>
+        <v>1486.69</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-585.583000</v>
+        <v>-585.58299999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>37610.241427</v>
+        <v>37610.241427000001</v>
       </c>
       <c r="BT15" s="1">
         <v>10.447289</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.940000</v>
+        <v>1617.94</v>
       </c>
       <c r="BV15" s="1">
-        <v>-841.712000</v>
+        <v>-841.71199999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>37621.288795</v>
@@ -4047,392 +4463,392 @@
         <v>10.450358</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.860000</v>
+        <v>1770.86</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1121.240000</v>
+        <v>-1121.24</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>37633.557833</v>
+        <v>37633.557832999999</v>
       </c>
       <c r="CD15" s="1">
         <v>10.453766</v>
       </c>
       <c r="CE15" s="1">
-        <v>2191.120000</v>
+        <v>2191.12</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1801.650000</v>
+        <v>-1801.65</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>37461.591886</v>
+        <v>37461.591886000002</v>
       </c>
       <c r="B16" s="1">
         <v>10.405998</v>
       </c>
       <c r="C16" s="1">
-        <v>1154.960000</v>
+        <v>1154.96</v>
       </c>
       <c r="D16" s="1">
-        <v>-233.225000</v>
+        <v>-233.22499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>37472.044087</v>
+        <v>37472.044087000002</v>
       </c>
       <c r="G16" s="1">
         <v>10.408901</v>
       </c>
       <c r="H16" s="1">
-        <v>1172.900000</v>
+        <v>1172.9000000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-197.361000</v>
+        <v>-197.36099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>37482.746258</v>
+        <v>37482.746257999999</v>
       </c>
       <c r="L16" s="1">
-        <v>10.411874</v>
+        <v>10.411873999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.300000</v>
+        <v>1198.3</v>
       </c>
       <c r="N16" s="1">
-        <v>-141.460000</v>
+        <v>-141.46</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>37493.342292</v>
+        <v>37493.342292000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.414817</v>
+        <v>10.414816999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="S16" s="1">
-        <v>-122.864000</v>
+        <v>-122.864</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>37503.738933</v>
+        <v>37503.738933000001</v>
       </c>
       <c r="V16" s="1">
         <v>10.417705</v>
       </c>
       <c r="W16" s="1">
-        <v>1214.880000</v>
+        <v>1214.8800000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-104.945000</v>
+        <v>-104.94499999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>37514.245688</v>
+        <v>37514.245688000003</v>
       </c>
       <c r="AA16" s="1">
         <v>10.420624</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.060000</v>
+        <v>1224.06</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.765200</v>
+        <v>-89.765199999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>37524.764346</v>
+        <v>37524.764346000004</v>
       </c>
       <c r="AF16" s="1">
         <v>10.423546</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.882100</v>
+        <v>-85.882099999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>37534.949231</v>
+        <v>37534.949230999999</v>
       </c>
       <c r="AK16" s="1">
         <v>10.426375</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.200000</v>
+        <v>1237.2</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.574400</v>
+        <v>-89.574399999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>37545.844814</v>
+        <v>37545.844813999996</v>
       </c>
       <c r="AP16" s="1">
         <v>10.429401</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.624000</v>
+        <v>-101.624</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>37556.520208</v>
+        <v>37556.520208000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>10.432367</v>
+        <v>10.432366999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.410000</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.091000</v>
+        <v>-121.09099999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>37567.165378</v>
+        <v>37567.165377999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.435324</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.665000</v>
+        <v>-138.66499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>37577.774275</v>
+        <v>37577.774275000003</v>
       </c>
       <c r="BE16" s="1">
         <v>10.438271</v>
       </c>
       <c r="BF16" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.354000</v>
+        <v>-221.35400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>37588.704645</v>
+        <v>37588.704644999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.441307</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.533000</v>
+        <v>-359.53300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>37600.123518</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.444479</v>
+        <v>10.444478999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.650000</v>
+        <v>1486.65</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-585.625000</v>
+        <v>-585.625</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>37610.654105</v>
+        <v>37610.654105000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.447404</v>
+        <v>10.447404000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.980000</v>
+        <v>1617.98</v>
       </c>
       <c r="BV16" s="1">
-        <v>-841.746000</v>
+        <v>-841.74599999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>37621.712377</v>
+        <v>37621.712377000003</v>
       </c>
       <c r="BY16" s="1">
         <v>10.450476</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.110000</v>
+        <v>1771.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1121.240000</v>
+        <v>-1121.24</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>37634.075666</v>
+        <v>37634.075665999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.453910</v>
+        <v>10.45391</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.720000</v>
+        <v>2192.7199999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1803.140000</v>
+        <v>-1803.14</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>37462.242139</v>
+        <v>37462.242139000002</v>
       </c>
       <c r="B17" s="1">
-        <v>10.406178</v>
+        <v>10.406178000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1154.910000</v>
+        <v>1154.9100000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-233.184000</v>
+        <v>-233.184</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>37472.694366</v>
+        <v>37472.694366000003</v>
       </c>
       <c r="G17" s="1">
         <v>10.409082</v>
       </c>
       <c r="H17" s="1">
-        <v>1173.260000</v>
+        <v>1173.26</v>
       </c>
       <c r="I17" s="1">
-        <v>-198.062000</v>
+        <v>-198.06200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>37483.125903</v>
       </c>
       <c r="L17" s="1">
-        <v>10.411979</v>
+        <v>10.411979000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1198.310000</v>
+        <v>1198.31</v>
       </c>
       <c r="N17" s="1">
-        <v>-141.686000</v>
+        <v>-141.68600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>37493.615599</v>
+        <v>37493.615598999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.414893</v>
+        <v>10.414892999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="S17" s="1">
-        <v>-122.912000</v>
+        <v>-122.91200000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>37504.079221</v>
       </c>
       <c r="V17" s="1">
-        <v>10.417800</v>
+        <v>10.4178</v>
       </c>
       <c r="W17" s="1">
-        <v>1215.000000</v>
+        <v>1215</v>
       </c>
       <c r="X17" s="1">
-        <v>-104.877000</v>
+        <v>-104.877</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>37514.595889</v>
+        <v>37514.595888999997</v>
       </c>
       <c r="AA17" s="1">
         <v>10.420721</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.100000</v>
+        <v>1224.0999999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.745300</v>
+        <v>-89.7453</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>37525.112536</v>
+        <v>37525.112536000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.423642</v>
+        <v>10.423641999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.907700</v>
+        <v>-85.907700000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>37535.361868</v>
@@ -4441,360 +4857,360 @@
         <v>10.426489</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.170000</v>
+        <v>1237.17</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.582500</v>
+        <v>-89.582499999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>37546.144432</v>
+        <v>37546.144432000001</v>
       </c>
       <c r="AP17" s="1">
         <v>10.429485</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.608000</v>
+        <v>-101.608</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>37556.829744</v>
+        <v>37556.829744000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.432453</v>
+        <v>10.432453000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.069000</v>
+        <v>-121.069</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>37567.520977</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.435422</v>
+        <v>10.435422000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.860000</v>
+        <v>1263.8599999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.657000</v>
+        <v>-138.65700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>37578.139826</v>
+        <v>37578.139825999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>10.438372</v>
+        <v>10.438371999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.367000</v>
+        <v>-221.36699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>37589.079589</v>
+        <v>37589.079589000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.441411</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.552000</v>
+        <v>-359.55200000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>37600.547620</v>
+        <v>37600.547619999998</v>
       </c>
       <c r="BO17" s="1">
         <v>10.444597</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.660000</v>
+        <v>1486.66</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-585.639000</v>
+        <v>-585.63900000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>37611.070743</v>
+        <v>37611.070742999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.447520</v>
+        <v>10.447520000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.920000</v>
+        <v>1617.92</v>
       </c>
       <c r="BV17" s="1">
-        <v>-841.646000</v>
+        <v>-841.64599999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>37622.136992</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.450594</v>
+        <v>10.450594000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.980000</v>
+        <v>1770.98</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1121.340000</v>
+        <v>-1121.3399999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>37634.592520</v>
+        <v>37634.592519999998</v>
       </c>
       <c r="CD17" s="1">
         <v>10.454053</v>
       </c>
       <c r="CE17" s="1">
-        <v>2194.000000</v>
+        <v>2194</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1801.320000</v>
+        <v>-1801.32</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>37462.615132</v>
+        <v>37462.615131999999</v>
       </c>
       <c r="B18" s="1">
-        <v>10.406282</v>
+        <v>10.406281999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1154.630000</v>
+        <v>1154.6300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-233.207000</v>
+        <v>-233.20699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>37473.077743</v>
+        <v>37473.077743000002</v>
       </c>
       <c r="G18" s="1">
         <v>10.409188</v>
       </c>
       <c r="H18" s="1">
-        <v>1173.060000</v>
+        <v>1173.06</v>
       </c>
       <c r="I18" s="1">
-        <v>-197.253000</v>
+        <v>-197.25299999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>37483.472896</v>
+        <v>37483.472895999999</v>
       </c>
       <c r="L18" s="1">
-        <v>10.412076</v>
+        <v>10.412076000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-141.597000</v>
+        <v>-141.59700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>37493.966788</v>
+        <v>37493.966787999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.414991</v>
+        <v>10.414991000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.480000</v>
+        <v>1206.48</v>
       </c>
       <c r="S18" s="1">
-        <v>-122.904000</v>
+        <v>-122.904</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>37504.425431</v>
+        <v>37504.425431000003</v>
       </c>
       <c r="V18" s="1">
-        <v>10.417896</v>
+        <v>10.417896000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1214.980000</v>
+        <v>1214.98</v>
       </c>
       <c r="X18" s="1">
-        <v>-104.879000</v>
+        <v>-104.879</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>37515.022437</v>
       </c>
       <c r="AA18" s="1">
-        <v>10.420840</v>
+        <v>10.42084</v>
       </c>
       <c r="AB18" s="1">
-        <v>1223.920000</v>
+        <v>1223.92</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.749400</v>
+        <v>-89.749399999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>37525.538767</v>
+        <v>37525.538766999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.423761</v>
+        <v>10.423761000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.868300</v>
+        <v>-85.868300000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>37535.657484</v>
+        <v>37535.657484000003</v>
       </c>
       <c r="AK18" s="1">
         <v>10.426572</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.558300</v>
+        <v>-89.558300000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>37546.504494</v>
+        <v>37546.504494000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.429585</v>
+        <v>10.429584999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.600000</v>
+        <v>-101.6</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>37557.194798</v>
+        <v>37557.194797999997</v>
       </c>
       <c r="AU18" s="1">
         <v>10.432554</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.400000</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.055000</v>
+        <v>-121.05500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>37567.879615</v>
+        <v>37567.879614999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.435522</v>
+        <v>10.435522000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.683000</v>
+        <v>-138.68299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>37578.499922</v>
+        <v>37578.499922000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>10.438472</v>
+        <v>10.438472000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1303.660000</v>
+        <v>1303.6600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.320000</v>
+        <v>-221.32</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>37589.829082</v>
+        <v>37589.829081999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.441619</v>
+        <v>10.441618999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.586000</v>
+        <v>-359.58600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>37600.942900</v>
+        <v>37600.942900000002</v>
       </c>
       <c r="BO18" s="1">
         <v>10.444706</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.610000</v>
+        <v>1486.61</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-585.716000</v>
+        <v>-585.71600000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>37611.497271</v>
@@ -4803,75 +5219,75 @@
         <v>10.447638</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.990000</v>
+        <v>1617.99</v>
       </c>
       <c r="BV18" s="1">
-        <v>-841.518000</v>
+        <v>-841.51800000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>37622.553593</v>
+        <v>37622.553592999997</v>
       </c>
       <c r="BY18" s="1">
         <v>10.450709</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.960000</v>
+        <v>1770.96</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1121.270000</v>
+        <v>-1121.27</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>37635.426262</v>
+        <v>37635.426262000001</v>
       </c>
       <c r="CD18" s="1">
         <v>10.454285</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.080000</v>
+        <v>2192.08</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1800.350000</v>
+        <v>-1800.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>37462.956378</v>
+        <v>37462.956378000003</v>
       </c>
       <c r="B19" s="1">
-        <v>10.406377</v>
+        <v>10.406377000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1155.120000</v>
+        <v>1155.1199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-233.429000</v>
+        <v>-233.429</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>37473.422461</v>
+        <v>37473.422461000002</v>
       </c>
       <c r="G19" s="1">
         <v>10.409284</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.800000</v>
+        <v>1172.8</v>
       </c>
       <c r="I19" s="1">
-        <v>-197.051000</v>
+        <v>-197.05099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>37483.817616</v>
@@ -4880,315 +5296,315 @@
         <v>10.412172</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.070000</v>
+        <v>1198.07</v>
       </c>
       <c r="N19" s="1">
-        <v>-141.666000</v>
+        <v>-141.666</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>37494.381938</v>
+        <v>37494.381937999999</v>
       </c>
       <c r="Q19" s="1">
         <v>10.415106</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="S19" s="1">
-        <v>-122.903000</v>
+        <v>-122.90300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>37504.843524</v>
+        <v>37504.843524000004</v>
       </c>
       <c r="V19" s="1">
-        <v>10.418012</v>
+        <v>10.418011999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X19" s="1">
-        <v>-104.893000</v>
+        <v>-104.893</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>37515.300181</v>
+        <v>37515.300180999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>10.420917</v>
+        <v>10.420916999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.060000</v>
+        <v>1224.06</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.842600</v>
+        <v>-89.842600000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>37525.814902</v>
+        <v>37525.814901999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.423837</v>
+        <v>10.423837000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.880400</v>
+        <v>-85.880399999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>37536.006693</v>
+        <v>37536.006693000003</v>
       </c>
       <c r="AK19" s="1">
         <v>10.426669</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.592600</v>
+        <v>-89.592600000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>37546.866076</v>
+        <v>37546.866075999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.429685</v>
+        <v>10.429684999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.636000</v>
+        <v>-101.636</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>37557.561840</v>
+        <v>37557.561840000002</v>
       </c>
       <c r="AU19" s="1">
         <v>10.432656</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.400000</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.105000</v>
+        <v>-121.105</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>37568.598287</v>
+        <v>37568.598287000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.435722</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.678000</v>
+        <v>-138.678</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>37579.221140</v>
+        <v>37579.221140000001</v>
       </c>
       <c r="BE19" s="1">
         <v>10.438673</v>
       </c>
       <c r="BF19" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.335000</v>
+        <v>-221.33500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>37590.210468</v>
+        <v>37590.210467999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>10.441725</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.503000</v>
+        <v>-359.50299999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>37601.362051</v>
+        <v>37601.362050999996</v>
       </c>
       <c r="BO19" s="1">
         <v>10.444823</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.630000</v>
+        <v>1486.63</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-585.654000</v>
+        <v>-585.654</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>37611.935735</v>
+        <v>37611.935734999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.447760</v>
+        <v>10.447760000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1618.110000</v>
+        <v>1618.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-841.523000</v>
+        <v>-841.52300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>37623.308504</v>
+        <v>37623.308504000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.450919</v>
+        <v>10.450919000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.940000</v>
+        <v>1770.94</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1121.350000</v>
+        <v>-1121.3499999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>37635.629138</v>
+        <v>37635.629137999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.454341</v>
+        <v>10.454340999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2191.380000</v>
+        <v>2191.38</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1802.090000</v>
+        <v>-1802.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>37463.299114</v>
+        <v>37463.299114000001</v>
       </c>
       <c r="B20" s="1">
-        <v>10.406472</v>
+        <v>10.406472000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1154.810000</v>
+        <v>1154.81</v>
       </c>
       <c r="D20" s="1">
-        <v>-233.198000</v>
+        <v>-233.19800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>37473.766685</v>
+        <v>37473.766685000002</v>
       </c>
       <c r="G20" s="1">
-        <v>10.409380</v>
+        <v>10.409380000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.680000</v>
+        <v>1172.68</v>
       </c>
       <c r="I20" s="1">
-        <v>-197.663000</v>
+        <v>-197.66300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>37484.237761</v>
+        <v>37484.237760999997</v>
       </c>
       <c r="L20" s="1">
         <v>10.412288</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.360000</v>
+        <v>1198.3599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-141.812000</v>
+        <v>-141.81200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>37494.664679</v>
+        <v>37494.664679000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.415185</v>
+        <v>10.415184999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="S20" s="1">
-        <v>-122.935000</v>
+        <v>-122.935</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>37505.132196</v>
+        <v>37505.132195999999</v>
       </c>
       <c r="V20" s="1">
         <v>10.418092</v>
       </c>
       <c r="W20" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X20" s="1">
-        <v>-104.939000</v>
+        <v>-104.93899999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>37515.647382</v>
+        <v>37515.647382000003</v>
       </c>
       <c r="AA20" s="1">
         <v>10.421013</v>
       </c>
       <c r="AB20" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.790600</v>
+        <v>-89.790599999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>37526.159129</v>
@@ -5197,103 +5613,103 @@
         <v>10.423933</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.500000</v>
+        <v>1229.5</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.886900</v>
+        <v>-85.886899999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>37536.356379</v>
+        <v>37536.356378999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.426766</v>
+        <v>10.426766000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.200000</v>
+        <v>1237.2</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.578800</v>
+        <v>-89.578800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>37547.586278</v>
+        <v>37547.586278000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>10.429885</v>
+        <v>10.429885000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.637000</v>
+        <v>-101.637</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>37558.290939</v>
+        <v>37558.290938999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.432859</v>
+        <v>10.432859000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.390000</v>
+        <v>1255.3900000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.105000</v>
+        <v>-121.105</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>37568.957392</v>
+        <v>37568.957391999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.435821</v>
+        <v>10.435821000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.870000</v>
+        <v>1263.8699999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.686000</v>
+        <v>-138.68600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>37579.737936</v>
+        <v>37579.737935999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.438816</v>
+        <v>10.438815999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.349000</v>
+        <v>-221.34899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>37590.581972</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.441828</v>
+        <v>10.441827999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.547000</v>
+        <v>-359.54700000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>37602.068819</v>
@@ -5302,210 +5718,210 @@
         <v>10.445019</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.680000</v>
+        <v>1486.68</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-585.628000</v>
+        <v>-585.62800000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>37612.649477</v>
+        <v>37612.649476999999</v>
       </c>
       <c r="BT20" s="1">
         <v>10.447958</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.170000</v>
+        <v>1618.17</v>
       </c>
       <c r="BV20" s="1">
-        <v>-841.516000</v>
+        <v>-841.51599999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>37623.457336</v>
+        <v>37623.457335999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.450960</v>
+        <v>10.45096</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.000000</v>
+        <v>1771</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1121.490000</v>
+        <v>-1121.49</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>37636.147478</v>
+        <v>37636.147477999999</v>
       </c>
       <c r="CD20" s="1">
         <v>10.454485</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.520000</v>
+        <v>2191.52</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1801.910000</v>
+        <v>-1801.91</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>37463.719721</v>
+        <v>37463.719721000001</v>
       </c>
       <c r="B21" s="1">
         <v>10.406589</v>
       </c>
       <c r="C21" s="1">
-        <v>1154.910000</v>
+        <v>1154.9100000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-233.293000</v>
+        <v>-233.29300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>37474.195724</v>
+        <v>37474.195723999997</v>
       </c>
       <c r="G21" s="1">
         <v>10.409499</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.010000</v>
+        <v>1173.01</v>
       </c>
       <c r="I21" s="1">
-        <v>-197.783000</v>
+        <v>-197.78299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>37484.529375</v>
+        <v>37484.529374999998</v>
       </c>
       <c r="L21" s="1">
         <v>10.412369</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.790000</v>
+        <v>1197.79</v>
       </c>
       <c r="N21" s="1">
-        <v>-141.935000</v>
+        <v>-141.935</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>37495.013808</v>
+        <v>37495.013808000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.415282</v>
+        <v>10.415281999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.430000</v>
+        <v>1206.43</v>
       </c>
       <c r="S21" s="1">
-        <v>-122.877000</v>
+        <v>-122.877</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>37505.481379</v>
+        <v>37505.481378999997</v>
       </c>
       <c r="V21" s="1">
         <v>10.418189</v>
       </c>
       <c r="W21" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X21" s="1">
-        <v>-104.963000</v>
+        <v>-104.96299999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>37516.000534</v>
+        <v>37516.000533999999</v>
       </c>
       <c r="AA21" s="1">
         <v>10.421111</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.010000</v>
+        <v>1224.01</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.761000</v>
+        <v>-89.760999999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>37526.505304</v>
+        <v>37526.505303999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.424029</v>
+        <v>10.424029000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.876700</v>
+        <v>-85.8767</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>37537.053721</v>
+        <v>37537.053720999997</v>
       </c>
       <c r="AK21" s="1">
         <v>10.426959</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.551000</v>
+        <v>-89.551000000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>37547.945908</v>
+        <v>37547.945908000002</v>
       </c>
       <c r="AP21" s="1">
         <v>10.429985</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.636000</v>
+        <v>-101.636</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>37558.679320</v>
+        <v>37558.679320000003</v>
       </c>
       <c r="AU21" s="1">
         <v>10.432966</v>
       </c>
       <c r="AV21" s="1">
-        <v>1255.420000</v>
+        <v>1255.42</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.074000</v>
+        <v>-121.074</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>37569.314543</v>
@@ -5514,73 +5930,73 @@
         <v>10.435921</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.830000</v>
+        <v>1263.83</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.716000</v>
+        <v>-138.71600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>37579.990401</v>
+        <v>37579.990401000003</v>
       </c>
       <c r="BE21" s="1">
         <v>10.438886</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.720000</v>
+        <v>1303.72</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.355000</v>
+        <v>-221.35499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>37591.262977</v>
+        <v>37591.262976999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>10.442017</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.880000</v>
+        <v>1372.88</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.553000</v>
+        <v>-359.553</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>37602.179923</v>
+        <v>37602.179923000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.445050</v>
+        <v>10.44505</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-585.679000</v>
+        <v>-585.67899999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>37612.779924</v>
+        <v>37612.779924000002</v>
       </c>
       <c r="BT21" s="1">
         <v>10.447994</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.090000</v>
+        <v>1618.09</v>
       </c>
       <c r="BV21" s="1">
-        <v>-841.407000</v>
+        <v>-841.40700000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>37623.878438</v>
@@ -5589,332 +6005,332 @@
         <v>10.451077</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1121.200000</v>
+        <v>-1121.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>37636.696554</v>
+        <v>37636.696554000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.454638</v>
+        <v>10.454637999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.410000</v>
+        <v>2191.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1800.810000</v>
+        <v>-1800.81</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>37463.999963</v>
+        <v>37463.999963000002</v>
       </c>
       <c r="B22" s="1">
-        <v>10.406667</v>
+        <v>10.406667000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1154.670000</v>
+        <v>1154.67</v>
       </c>
       <c r="D22" s="1">
-        <v>-233.533000</v>
+        <v>-233.53299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>37474.458107</v>
+        <v>37474.458106999999</v>
       </c>
       <c r="G22" s="1">
-        <v>10.409572</v>
+        <v>10.409572000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.800000</v>
+        <v>1172.8</v>
       </c>
       <c r="I22" s="1">
-        <v>-197.701000</v>
+        <v>-197.70099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>37484.876574</v>
+        <v>37484.876574000002</v>
       </c>
       <c r="L22" s="1">
         <v>10.412466</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.870000</v>
+        <v>1197.8699999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-142.149000</v>
+        <v>-142.149</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>37495.362001</v>
+        <v>37495.362001000001</v>
       </c>
       <c r="Q22" s="1">
         <v>10.415378</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.440000</v>
+        <v>1206.44</v>
       </c>
       <c r="S22" s="1">
-        <v>-122.880000</v>
+        <v>-122.88</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>37505.820674</v>
+        <v>37505.820674000002</v>
       </c>
       <c r="V22" s="1">
         <v>10.418284</v>
       </c>
       <c r="W22" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X22" s="1">
-        <v>-104.928000</v>
+        <v>-104.928</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>37516.695429</v>
+        <v>37516.695428999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.421304</v>
+        <v>10.421303999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.030000</v>
+        <v>1224.03</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.787800</v>
+        <v>-89.787800000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>37527.189287</v>
+        <v>37527.189287000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.424219</v>
+        <v>10.424219000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.872400</v>
+        <v>-85.872399999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>37537.398472</v>
+        <v>37537.398472000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.427055</v>
+        <v>10.427054999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.210000</v>
+        <v>1237.21</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.557000</v>
+        <v>-89.557000000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>37548.304474</v>
+        <v>37548.304473999997</v>
       </c>
       <c r="AP22" s="1">
         <v>10.430085</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>37559.047820</v>
+        <v>37559.04782</v>
       </c>
       <c r="AU22" s="1">
         <v>10.433069</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.410000</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.086000</v>
+        <v>-121.086</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>37569.981165</v>
+        <v>37569.981164999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.436106</v>
+        <v>10.436106000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.660000</v>
+        <v>-138.66</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>37580.711122</v>
+        <v>37580.711122000001</v>
       </c>
       <c r="BE22" s="1">
         <v>10.439086</v>
       </c>
       <c r="BF22" s="1">
-        <v>1303.660000</v>
+        <v>1303.6600000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.341000</v>
+        <v>-221.34100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>37591.945510</v>
+        <v>37591.945509999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.442207</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.587000</v>
+        <v>-359.58699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>37602.605988</v>
+        <v>37602.605988000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.445168</v>
+        <v>10.445168000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-585.725000</v>
+        <v>-585.72500000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>37613.218388</v>
+        <v>37613.218388000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.448116</v>
+        <v>10.448116000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.280000</v>
+        <v>1618.28</v>
       </c>
       <c r="BV22" s="1">
-        <v>-841.437000</v>
+        <v>-841.43700000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>37624.300999</v>
+        <v>37624.300998999999</v>
       </c>
       <c r="BY22" s="1">
         <v>10.451195</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.970000</v>
+        <v>1770.97</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1121.350000</v>
+        <v>-1121.3499999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>37637.227238</v>
+        <v>37637.227237999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.454785</v>
+        <v>10.454784999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2191.990000</v>
+        <v>2191.9899999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1802.630000</v>
+        <v>-1802.63</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>37464.340251</v>
+        <v>37464.340251000001</v>
       </c>
       <c r="B23" s="1">
-        <v>10.406761</v>
+        <v>10.406760999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1154.780000</v>
+        <v>1154.78</v>
       </c>
       <c r="D23" s="1">
-        <v>-233.483000</v>
+        <v>-233.483</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>37474.799356</v>
+        <v>37474.799356000003</v>
       </c>
       <c r="G23" s="1">
         <v>10.409666</v>
       </c>
       <c r="H23" s="1">
-        <v>1172.590000</v>
+        <v>1172.5899999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-197.745000</v>
+        <v>-197.745</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>37485.220337</v>
+        <v>37485.220336999999</v>
       </c>
       <c r="L23" s="1">
         <v>10.412561</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.370000</v>
+        <v>1198.3699999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-141.637000</v>
+        <v>-141.637</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>37496.055903</v>
@@ -5923,178 +6339,178 @@
         <v>10.415571</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S23" s="1">
-        <v>-122.882000</v>
+        <v>-122.88200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>37506.508130</v>
+        <v>37506.508130000002</v>
       </c>
       <c r="V23" s="1">
         <v>10.418474</v>
       </c>
       <c r="W23" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X23" s="1">
-        <v>-104.910000</v>
+        <v>-104.91</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>37517.045640</v>
+        <v>37517.045639999997</v>
       </c>
       <c r="AA23" s="1">
         <v>10.421402</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.080000</v>
+        <v>1224.08</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.763300</v>
+        <v>-89.763300000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>37527.531566</v>
+        <v>37527.531565999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.424314</v>
+        <v>10.424314000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.883400</v>
+        <v>-85.883399999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>37537.749641</v>
+        <v>37537.749641000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>10.427153</v>
+        <v>10.427153000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.573200</v>
+        <v>-89.5732</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>37548.972130</v>
+        <v>37548.972130000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.430270</v>
+        <v>10.43027</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.612000</v>
+        <v>-101.61199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>37559.719090</v>
+        <v>37559.719089999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.433255</v>
+        <v>10.433255000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.400000</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.082000</v>
+        <v>-121.08199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>37570.425054</v>
+        <v>37570.425053999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.436229</v>
+        <v>10.436229000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.860000</v>
+        <v>1263.8599999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.689000</v>
+        <v>-138.68899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>37581.072206</v>
+        <v>37581.072205999997</v>
       </c>
       <c r="BE23" s="1">
         <v>10.439187</v>
       </c>
       <c r="BF23" s="1">
-        <v>1303.690000</v>
+        <v>1303.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.365000</v>
+        <v>-221.36500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>37592.367073</v>
+        <v>37592.367073000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.442324</v>
+        <v>10.442323999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.527000</v>
+        <v>-359.52699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>37603.002289</v>
+        <v>37603.002288999996</v>
       </c>
       <c r="BO23" s="1">
         <v>10.445278</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.560000</v>
+        <v>1486.56</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-585.701000</v>
+        <v>-585.70100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>37613.649412</v>
+        <v>37613.649411999999</v>
       </c>
       <c r="BT23" s="1">
         <v>10.448236</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.250000</v>
+        <v>1618.25</v>
       </c>
       <c r="BV23" s="1">
-        <v>-841.460000</v>
+        <v>-841.46</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>37624.754341</v>
@@ -6103,45 +6519,45 @@
         <v>10.451321</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.040000</v>
+        <v>1771.04</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1121.260000</v>
+        <v>-1121.26</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>37637.749028</v>
+        <v>37637.749027999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.454930</v>
+        <v>10.454929999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.850000</v>
+        <v>2193.85</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1800.990000</v>
+        <v>-1800.99</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>37464.680504</v>
+        <v>37464.680504000004</v>
       </c>
       <c r="B24" s="1">
-        <v>10.406856</v>
+        <v>10.406855999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1154.930000</v>
+        <v>1154.93</v>
       </c>
       <c r="D24" s="1">
-        <v>-233.497000</v>
+        <v>-233.49700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>37475.146556</v>
@@ -6150,13 +6566,13 @@
         <v>10.409763</v>
       </c>
       <c r="H24" s="1">
-        <v>1172.810000</v>
+        <v>1172.81</v>
       </c>
       <c r="I24" s="1">
-        <v>-197.666000</v>
+        <v>-197.666</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>37485.912718</v>
@@ -6165,88 +6581,88 @@
         <v>10.412754</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.290000</v>
+        <v>1198.29</v>
       </c>
       <c r="N24" s="1">
-        <v>-141.779000</v>
+        <v>-141.779</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>37496.407071</v>
+        <v>37496.407071000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.415669</v>
+        <v>10.415668999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="S24" s="1">
-        <v>-122.938000</v>
+        <v>-122.938</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>37506.850832</v>
+        <v>37506.850831999996</v>
       </c>
       <c r="V24" s="1">
-        <v>10.418570</v>
+        <v>10.418570000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="X24" s="1">
-        <v>-104.922000</v>
+        <v>-104.922</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>37517.392308</v>
+        <v>37517.392308000002</v>
       </c>
       <c r="AA24" s="1">
         <v>10.421498</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.030000</v>
+        <v>1224.03</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.738600</v>
+        <v>-89.738600000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>37527.876246</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.424410</v>
+        <v>10.42441</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.884300</v>
+        <v>-85.884299999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>37538.405321</v>
+        <v>37538.405320999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.427335</v>
+        <v>10.427334999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.210000</v>
+        <v>1237.21</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.560800</v>
+        <v>-89.5608</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>37549.415513</v>
@@ -6255,43 +6671,43 @@
         <v>10.430393</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.624000</v>
+        <v>-101.624</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>37560.142490</v>
+        <v>37560.142489999998</v>
       </c>
       <c r="AU24" s="1">
         <v>10.433373</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.430000</v>
+        <v>1255.43</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.073000</v>
+        <v>-121.07299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>37570.784874</v>
+        <v>37570.784873999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.436329</v>
+        <v>10.436329000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.687000</v>
+        <v>-138.68700000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>37581.434791</v>
@@ -6300,28 +6716,28 @@
         <v>10.439287</v>
       </c>
       <c r="BF24" s="1">
-        <v>1303.690000</v>
+        <v>1303.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.330000</v>
+        <v>-221.33</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>37592.742545</v>
+        <v>37592.742545000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.442428</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.526000</v>
+        <v>-359.52600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>37603.422929</v>
@@ -6330,90 +6746,90 @@
         <v>10.445395</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.640000</v>
+        <v>1486.64</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-585.629000</v>
+        <v>-585.62900000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>37614.061587</v>
+        <v>37614.061586999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.448350</v>
+        <v>10.44835</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.400000</v>
+        <v>1618.4</v>
       </c>
       <c r="BV24" s="1">
-        <v>-841.414000</v>
+        <v>-841.41399999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>37625.169988</v>
+        <v>37625.169988000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.451436</v>
+        <v>10.451435999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.060000</v>
+        <v>1771.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1121.190000</v>
+        <v>-1121.19</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>37638.286723</v>
+        <v>37638.286722999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.455080</v>
+        <v>10.455080000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.540000</v>
+        <v>2190.54</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1801.530000</v>
+        <v>-1801.53</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>37465.365448</v>
+        <v>37465.365447999997</v>
       </c>
       <c r="B25" s="1">
-        <v>10.407046</v>
+        <v>10.407045999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1154.620000</v>
+        <v>1154.6199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-233.220000</v>
+        <v>-233.22</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>37475.833549</v>
+        <v>37475.833549000003</v>
       </c>
       <c r="G25" s="1">
-        <v>10.409954</v>
+        <v>10.409954000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.730000</v>
+        <v>1172.73</v>
       </c>
       <c r="I25" s="1">
-        <v>-197.625000</v>
+        <v>-197.625</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>37486.257932</v>
@@ -6422,482 +6838,483 @@
         <v>10.412849</v>
       </c>
       <c r="M25" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="N25" s="1">
-        <v>-141.599000</v>
+        <v>-141.59899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>37496.758734</v>
+        <v>37496.758734000003</v>
       </c>
       <c r="Q25" s="1">
         <v>10.415766</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="S25" s="1">
-        <v>-122.934000</v>
+        <v>-122.934</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>37507.195057</v>
+        <v>37507.195056999997</v>
       </c>
       <c r="V25" s="1">
-        <v>10.418665</v>
+        <v>10.418665000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X25" s="1">
-        <v>-104.928000</v>
+        <v>-104.928</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>37518.045042</v>
+        <v>37518.045041999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.421679</v>
+        <v>10.421678999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.090000</v>
+        <v>1224.0899999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.737800</v>
+        <v>-89.737799999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>37528.321898</v>
+        <v>37528.321898000002</v>
       </c>
       <c r="AF25" s="1">
         <v>10.424534</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.893200</v>
+        <v>-85.893199999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>37538.795678</v>
+        <v>37538.795678000002</v>
       </c>
       <c r="AK25" s="1">
         <v>10.427443</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.180000</v>
+        <v>1237.18</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.556000</v>
+        <v>-89.555999999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>37549.777097</v>
+        <v>37549.777096999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.430494</v>
+        <v>10.430493999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.620000</v>
+        <v>-101.62</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>37560.507556</v>
+        <v>37560.507555999997</v>
       </c>
       <c r="AU25" s="1">
         <v>10.433474</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.410000</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.060000</v>
+        <v>-121.06</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>37571.139788</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.436428</v>
+        <v>10.436427999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.860000</v>
+        <v>1263.8599999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.676000</v>
+        <v>-138.67599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>37581.864781</v>
+        <v>37581.864780999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>10.439407</v>
+        <v>10.439406999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.312000</v>
+        <v>-221.31200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>37593.163152</v>
+        <v>37593.163152000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.442545</v>
+        <v>10.442545000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.890000</v>
+        <v>1372.89</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.586000</v>
+        <v>-359.58600000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>37603.818704</v>
+        <v>37603.818703999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.445505</v>
+        <v>10.445505000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.660000</v>
+        <v>1486.66</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-585.643000</v>
+        <v>-585.64300000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>37614.488644</v>
+        <v>37614.488643999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.448469</v>
+        <v>10.448468999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.450000</v>
+        <v>1618.45</v>
       </c>
       <c r="BV25" s="1">
-        <v>-841.399000</v>
+        <v>-841.399</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>37625.625316</v>
+        <v>37625.625315999998</v>
       </c>
       <c r="BY25" s="1">
         <v>10.451563</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.190000</v>
+        <v>1771.19</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1121.260000</v>
+        <v>-1121.26</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>37638.825843</v>
+        <v>37638.825842999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.455229</v>
+        <v>10.455228999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2193.540000</v>
+        <v>2193.54</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1802.490000</v>
+        <v>-1802.49</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>37465.708679</v>
+        <v>37465.708679000003</v>
       </c>
       <c r="B26" s="1">
-        <v>10.407141</v>
+        <v>10.407140999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1154.830000</v>
+        <v>1154.83</v>
       </c>
       <c r="D26" s="1">
-        <v>-233.378000</v>
+        <v>-233.37799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>37476.179256</v>
+        <v>37476.179256000003</v>
       </c>
       <c r="G26" s="1">
-        <v>10.410050</v>
+        <v>10.41005</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.180000</v>
+        <v>1173.18</v>
       </c>
       <c r="I26" s="1">
-        <v>-197.710000</v>
+        <v>-197.71</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>37486.606123</v>
+        <v>37486.606122999998</v>
       </c>
       <c r="L26" s="1">
         <v>10.412946</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-141.888000</v>
+        <v>-141.88800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>37497.413454</v>
+        <v>37497.413454000001</v>
       </c>
       <c r="Q26" s="1">
         <v>10.415948</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.440000</v>
+        <v>1206.44</v>
       </c>
       <c r="S26" s="1">
-        <v>-122.890000</v>
+        <v>-122.89</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>37507.850271</v>
+        <v>37507.850271000003</v>
       </c>
       <c r="V26" s="1">
         <v>10.418847</v>
       </c>
       <c r="W26" s="1">
-        <v>1214.980000</v>
+        <v>1214.98</v>
       </c>
       <c r="X26" s="1">
-        <v>-104.850000</v>
+        <v>-104.85</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>37518.439362</v>
+        <v>37518.439361999997</v>
       </c>
       <c r="AA26" s="1">
         <v>10.421789</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.040000</v>
+        <v>1224.04</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.788900</v>
+        <v>-89.788899999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>37528.565188</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.424601</v>
+        <v>10.424600999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.873000</v>
+        <v>-85.873000000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>37539.144359</v>
+        <v>37539.144358999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.427540</v>
+        <v>10.42754</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.180000</v>
+        <v>1237.18</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.548400</v>
+        <v>-89.548400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>37550.138185</v>
+        <v>37550.138185000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.430594</v>
+        <v>10.430593999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.647000</v>
+        <v>-101.64700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>37560.873593</v>
+        <v>37560.873592999997</v>
       </c>
       <c r="AU26" s="1">
         <v>10.433576</v>
       </c>
       <c r="AV26" s="1">
-        <v>1255.430000</v>
+        <v>1255.43</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.082000</v>
+        <v>-121.08199999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>37571.553483</v>
+        <v>37571.553483000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.436543</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.850000</v>
+        <v>1263.8499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.649000</v>
+        <v>-138.649</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>37582.157919</v>
+        <v>37582.157918999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>10.439488</v>
+        <v>10.439488000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.344000</v>
+        <v>-221.34399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>37593.493486</v>
+        <v>37593.493485999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.442637</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.569000</v>
+        <v>-359.56900000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>37604.240341</v>
+        <v>37604.240340999997</v>
       </c>
       <c r="BO26" s="1">
         <v>10.445622</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.630000</v>
+        <v>1486.63</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-585.698000</v>
+        <v>-585.69799999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>37614.921155</v>
+        <v>37614.921155000004</v>
       </c>
       <c r="BT26" s="1">
         <v>10.448589</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.470000</v>
+        <v>1618.47</v>
       </c>
       <c r="BV26" s="1">
-        <v>-841.391000</v>
+        <v>-841.39099999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>37626.074231</v>
+        <v>37626.074230999999</v>
       </c>
       <c r="BY26" s="1">
         <v>10.451687</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.840000</v>
+        <v>1770.84</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1121.260000</v>
+        <v>-1121.26</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>37639.368001</v>
+        <v>37639.368001000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.455380</v>
+        <v>10.45538</v>
       </c>
       <c r="CE26" s="1">
-        <v>2192.110000</v>
+        <v>2192.11</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1800.230000</v>
+        <v>-1800.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>